--- a/day.xlsx
+++ b/day.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad\OneDrive\Desktop\Netwaciila\Projets\EmploiDuTemps\AlgorithmeGénetique\Autres\calendar_proble_solving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buddha\Desktop\calendar_proble_solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D8BBAD-B0CE-4177-8DC4-E6A2366A6070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D329247-DAAE-48CF-AD1C-4F59C68BA9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>day</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>id_timeset</t>
+  </si>
+  <si>
+    <t>8h-10h</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>samedi</t>
+  </si>
+  <si>
+    <t>10h-12h</t>
+  </si>
+  <si>
+    <t>14h-16h</t>
+  </si>
+  <si>
+    <t>16h-18h</t>
   </si>
 </sst>
 </file>
@@ -366,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,8 +413,8 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -403,8 +424,8 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -414,8 +435,8 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -425,8 +446,8 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,10 +455,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,10 +466,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -456,10 +477,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -467,10 +488,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -478,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,10 +510,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,10 +521,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
         <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -511,10 +532,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -522,10 +543,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,10 +554,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,10 +565,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
         <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,10 +576,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,10 +587,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,10 +598,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,10 +609,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,10 +620,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,10 +631,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,32 +642,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
